--- a/nmadb/480667.xlsx
+++ b/nmadb/480667.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-45" windowWidth="19440" windowHeight="14895"/>
+    <workbookView xWindow="60" yWindow="-45" windowWidth="19440" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="480667" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -245,8 +245,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,224 +568,224 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="219">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -802,7 +802,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -876,7 +876,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -911,7 +910,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1087,14 +1085,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="4"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
@@ -1105,7 +1103,7 @@
     <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1131,7 +1129,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>2002</v>
       </c>
@@ -1151,7 +1149,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
@@ -1167,7 +1168,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>1971</v>
       </c>
@@ -1194,7 +1195,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>1996</v>
       </c>
@@ -1239,7 +1243,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
@@ -1257,7 +1264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>1994</v>
       </c>
@@ -1284,7 +1291,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
@@ -1302,7 +1312,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
       <c r="D10" s="5">
         <v>3</v>
       </c>
@@ -1320,7 +1333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>1988</v>
       </c>
@@ -1347,7 +1360,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
@@ -1365,7 +1381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>1997</v>
       </c>
@@ -1385,7 +1401,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
+      <c r="C14" s="4">
+        <v>6</v>
+      </c>
       <c r="D14" s="4">
         <v>4</v>
       </c>
@@ -1396,7 +1415,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
+      <c r="C15" s="4">
+        <v>6</v>
+      </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
@@ -1407,7 +1429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>1995</v>
       </c>
@@ -1427,7 +1449,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
+      <c r="C17" s="4">
+        <v>7</v>
+      </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
@@ -1438,7 +1463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4">
         <v>1999</v>
       </c>
@@ -1458,7 +1483,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
       <c r="D19" s="4">
         <v>5</v>
       </c>
@@ -1469,7 +1497,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
+      <c r="C20" s="4">
+        <v>8</v>
+      </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
@@ -1480,7 +1511,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="4">
         <v>2005</v>
       </c>
@@ -1500,7 +1531,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
+      <c r="C22" s="4">
+        <v>9</v>
+      </c>
       <c r="D22" s="4">
         <v>5</v>
       </c>
@@ -1511,7 +1545,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
+      <c r="C23" s="4">
+        <v>9</v>
+      </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
@@ -1522,7 +1559,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="4">
         <v>2006</v>
       </c>
@@ -1542,7 +1579,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
+      <c r="C25" s="4">
+        <v>10</v>
+      </c>
       <c r="D25" s="4">
         <v>5</v>
       </c>
@@ -1553,7 +1593,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
+      <c r="C26" s="4">
+        <v>10</v>
+      </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
@@ -1564,7 +1607,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="4">
         <v>2003</v>
       </c>
@@ -1584,7 +1627,10 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
+      <c r="C28" s="4">
+        <v>11</v>
+      </c>
       <c r="D28" s="4">
         <v>1</v>
       </c>
@@ -1595,7 +1641,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="4">
         <v>1999</v>
       </c>
@@ -1615,7 +1661,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
+      <c r="C30" s="4">
+        <v>12</v>
+      </c>
       <c r="D30" s="4">
         <v>1</v>
       </c>
@@ -1626,7 +1675,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
+      <c r="C31" s="4">
+        <v>12</v>
+      </c>
       <c r="D31" s="5">
         <v>7</v>
       </c>
@@ -1637,7 +1689,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="4">
         <v>2002</v>
       </c>
@@ -1657,7 +1709,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
+      <c r="C33" s="4">
+        <v>13</v>
+      </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
@@ -1668,7 +1723,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="4">
         <v>2000</v>
       </c>
@@ -1688,7 +1743,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
+      <c r="C35" s="4">
+        <v>14</v>
+      </c>
       <c r="D35" s="4">
         <v>1</v>
       </c>
@@ -1699,7 +1757,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="4">
         <v>1991</v>
       </c>
@@ -1719,7 +1777,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
+      <c r="C37" s="4">
+        <v>15</v>
+      </c>
       <c r="D37" s="4">
         <v>1</v>
       </c>
@@ -1730,7 +1791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="4">
         <v>1993</v>
       </c>
@@ -1750,7 +1811,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
+      <c r="C39" s="4">
+        <v>16</v>
+      </c>
       <c r="D39" s="4">
         <v>1</v>
       </c>
@@ -1761,7 +1825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="4">
         <v>1993</v>
       </c>
@@ -1781,7 +1845,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
+      <c r="C41" s="4">
+        <v>17</v>
+      </c>
       <c r="D41" s="4">
         <v>1</v>
       </c>
@@ -1792,7 +1859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="4">
         <v>1998</v>
       </c>
@@ -1812,7 +1879,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
+      <c r="C43" s="4">
+        <v>18</v>
+      </c>
       <c r="D43" s="4">
         <v>1</v>
       </c>
@@ -1823,7 +1893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="4">
         <v>1989</v>
       </c>
@@ -1843,7 +1913,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
+      <c r="C45" s="4">
+        <v>19</v>
+      </c>
       <c r="D45" s="4">
         <v>1</v>
       </c>
@@ -1854,7 +1927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="4">
         <v>1995</v>
       </c>
@@ -1874,7 +1947,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
+      <c r="C47" s="4">
+        <v>20</v>
+      </c>
       <c r="D47" s="4">
         <v>1</v>
       </c>
@@ -1885,7 +1961,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="5">
         <v>1998</v>
       </c>
@@ -1905,9 +1981,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
+      <c r="C49" s="4">
+        <v>21</v>
+      </c>
       <c r="D49" s="5">
         <v>4</v>
       </c>
@@ -1918,7 +1997,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="5">
         <v>2004</v>
       </c>
@@ -1938,10 +2017,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="C51" s="5">
+        <v>22</v>
+      </c>
       <c r="D51" s="5">
         <v>4</v>
       </c>
@@ -1952,7 +2033,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="5">
         <v>2011</v>
       </c>
@@ -1972,10 +2053,12 @@
         <v>697</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5">
+        <v>23</v>
+      </c>
       <c r="D53" s="5">
         <v>4</v>
       </c>
@@ -1986,7 +2069,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="5">
         <v>1997</v>
       </c>
@@ -2006,10 +2089,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="5">
+        <v>24</v>
+      </c>
       <c r="D55" s="5">
         <v>4</v>
       </c>
@@ -2020,7 +2105,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="5">
         <v>2012</v>
       </c>
@@ -2040,10 +2125,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="5">
+        <v>25</v>
+      </c>
       <c r="D57" s="5">
         <v>6</v>
       </c>
@@ -2054,7 +2141,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="5">
         <v>1991</v>
       </c>
@@ -2074,10 +2161,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="C59" s="5">
+        <v>26</v>
+      </c>
       <c r="D59" s="5">
         <v>7</v>
       </c>
@@ -2088,7 +2177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="5">
         <v>2002</v>
       </c>
@@ -2108,10 +2197,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="5">
+        <v>27</v>
+      </c>
       <c r="D61" s="5">
         <v>7</v>
       </c>
@@ -2122,7 +2213,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="5">
         <v>2005</v>
       </c>
@@ -2142,9 +2233,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="C63" s="5">
+        <v>28</v>
+      </c>
       <c r="D63" s="5">
         <v>5</v>
       </c>
@@ -2155,7 +2248,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="5">
         <v>1999</v>
       </c>
@@ -2175,10 +2268,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="C65" s="5">
+        <v>29</v>
+      </c>
       <c r="D65" s="5">
         <v>5</v>
       </c>
@@ -2189,7 +2284,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="5">
         <v>2000</v>
       </c>
@@ -2209,10 +2304,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="C67" s="5">
+        <v>30</v>
+      </c>
       <c r="D67" s="5">
         <v>5</v>
       </c>
@@ -2223,7 +2320,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="5">
         <v>2002</v>
       </c>
@@ -2243,10 +2340,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="C69" s="5">
+        <v>31</v>
+      </c>
       <c r="D69" s="5">
         <v>5</v>
       </c>
@@ -2257,7 +2356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="5">
         <v>1984</v>
       </c>
@@ -2277,10 +2376,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="C71" s="5">
+        <v>32</v>
+      </c>
       <c r="D71" s="5">
         <v>7</v>
       </c>
@@ -2291,7 +2392,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="5">
         <v>1988</v>
       </c>
@@ -2311,10 +2412,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="C73" s="5">
+        <v>33</v>
+      </c>
       <c r="D73" s="5">
         <v>7</v>
       </c>
@@ -2325,10 +2428,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="C74" s="5">
+        <v>33</v>
+      </c>
       <c r="D74" s="5">
         <v>2</v>
       </c>
@@ -2339,7 +2444,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="5">
         <v>1988</v>
       </c>
@@ -2359,10 +2464,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
+      <c r="C76" s="5">
+        <v>34</v>
+      </c>
       <c r="D76" s="5">
         <v>7</v>
       </c>
@@ -2373,7 +2480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="5">
         <v>1982</v>
       </c>
@@ -2393,10 +2500,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="C78" s="5">
+        <v>35</v>
+      </c>
       <c r="D78" s="5">
         <v>7</v>
       </c>
@@ -2407,7 +2516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="5">
         <v>1989</v>
       </c>
@@ -2427,10 +2536,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
+      <c r="C80" s="5">
+        <v>36</v>
+      </c>
       <c r="D80" s="5">
         <v>9</v>
       </c>
@@ -2441,7 +2552,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="5">
         <v>1996</v>
       </c>
@@ -2461,10 +2572,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
+      <c r="C82" s="5">
+        <v>37</v>
+      </c>
       <c r="D82" s="5">
         <v>3</v>
       </c>
@@ -2475,7 +2588,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" s="5">
         <v>1989</v>
       </c>
@@ -2495,10 +2608,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="C84" s="5">
+        <v>38</v>
+      </c>
       <c r="D84" s="5">
         <v>3</v>
       </c>
@@ -2509,7 +2624,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" s="5">
         <v>1999</v>
       </c>
@@ -2529,10 +2644,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
+      <c r="C86" s="5">
+        <v>39</v>
+      </c>
       <c r="D86" s="5">
         <v>3</v>
       </c>
@@ -2543,7 +2660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" s="5">
         <v>1999</v>
       </c>
@@ -2563,10 +2680,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+      <c r="C88" s="5">
+        <v>40</v>
+      </c>
       <c r="D88" s="5">
         <v>3</v>
       </c>
@@ -2577,7 +2696,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" s="5">
         <v>1991</v>
       </c>
@@ -2597,10 +2716,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
+      <c r="C90" s="5">
+        <v>41</v>
+      </c>
       <c r="D90" s="5">
         <v>3</v>
       </c>
@@ -2611,7 +2732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" s="5">
         <v>1985</v>
       </c>
@@ -2631,10 +2752,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
+      <c r="C92" s="5">
+        <v>42</v>
+      </c>
       <c r="D92" s="5">
         <v>3</v>
       </c>
@@ -2645,7 +2768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" s="5">
         <v>1986</v>
       </c>
@@ -2665,10 +2788,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
+      <c r="C94" s="5">
+        <v>43</v>
+      </c>
       <c r="D94" s="5">
         <v>3</v>
       </c>
@@ -2679,7 +2804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" s="5">
         <v>1999</v>
       </c>
@@ -2699,10 +2824,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
+      <c r="C96" s="5">
+        <v>44</v>
+      </c>
       <c r="D96" s="5">
         <v>3</v>
       </c>
@@ -2713,7 +2840,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="5">
         <v>1992</v>
       </c>
@@ -2733,10 +2860,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
+      <c r="C98" s="5">
+        <v>45</v>
+      </c>
       <c r="D98" s="5">
         <v>3</v>
       </c>
@@ -2747,7 +2876,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" s="5">
         <v>1998</v>
       </c>
@@ -2767,10 +2896,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+      <c r="C100" s="5">
+        <v>46</v>
+      </c>
       <c r="D100" s="5">
         <v>3</v>
       </c>
@@ -2781,7 +2912,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="5">
         <v>1994</v>
       </c>
@@ -2801,10 +2932,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
+      <c r="C102" s="5">
+        <v>47</v>
+      </c>
       <c r="D102" s="5">
         <v>3</v>
       </c>
@@ -2815,7 +2948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" s="5">
         <v>1996</v>
       </c>
@@ -2835,10 +2968,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
+      <c r="C104" s="5">
+        <v>48</v>
+      </c>
       <c r="D104" s="5">
         <v>3</v>
       </c>
@@ -2849,7 +2984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="5">
         <v>2005</v>
       </c>
@@ -2869,10 +3004,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
+      <c r="C106" s="5">
+        <v>49</v>
+      </c>
       <c r="D106" s="5">
         <v>3</v>
       </c>
@@ -2883,7 +3020,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="5">
         <v>1997</v>
       </c>
@@ -2903,10 +3040,12 @@
         <v>506</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
+      <c r="C108" s="5">
+        <v>50</v>
+      </c>
       <c r="D108" s="5">
         <v>3</v>
       </c>
@@ -2917,7 +3056,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="5">
         <v>1994</v>
       </c>
@@ -2937,10 +3076,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
+      <c r="C110" s="5">
+        <v>51</v>
+      </c>
       <c r="D110" s="5">
         <v>3</v>
       </c>
@@ -2951,7 +3092,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="5">
         <v>2006</v>
       </c>
@@ -2971,10 +3112,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
+      <c r="C112" s="5">
+        <v>52</v>
+      </c>
       <c r="D112" s="5">
         <v>3</v>
       </c>
@@ -2985,7 +3128,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" s="5">
         <v>1996</v>
       </c>
@@ -3005,10 +3148,12 @@
         <v>363</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
+      <c r="C114" s="5">
+        <v>53</v>
+      </c>
       <c r="D114" s="5">
         <v>3</v>
       </c>
@@ -3019,7 +3164,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" s="5">
         <v>2004</v>
       </c>
@@ -3039,10 +3184,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
+      <c r="C116" s="5">
+        <v>54</v>
+      </c>
       <c r="D116" s="5">
         <v>4</v>
       </c>
@@ -3053,7 +3200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" s="5">
         <v>1990</v>
       </c>
@@ -3073,10 +3220,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
+      <c r="C118" s="5">
+        <v>55</v>
+      </c>
       <c r="D118" s="5">
         <v>8</v>
       </c>
@@ -3087,7 +3236,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="5">
         <v>1993</v>
       </c>
@@ -3107,10 +3256,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
+      <c r="C120" s="5">
+        <v>56</v>
+      </c>
       <c r="D120" s="5">
         <v>9</v>
       </c>
@@ -3121,7 +3272,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" s="5">
         <v>1994</v>
       </c>
@@ -3141,10 +3292,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
+      <c r="C122" s="5">
+        <v>57</v>
+      </c>
       <c r="D122" s="5">
         <v>9</v>
       </c>
@@ -3155,7 +3308,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" s="5">
         <v>1995</v>
       </c>
@@ -3175,10 +3328,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
+      <c r="C124" s="5">
+        <v>58</v>
+      </c>
       <c r="D124" s="5">
         <v>9</v>
       </c>
@@ -3189,7 +3344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" s="5">
         <v>1997</v>
       </c>
@@ -3209,10 +3364,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
+      <c r="C126" s="5">
+        <v>59</v>
+      </c>
       <c r="D126" s="5">
         <v>5</v>
       </c>
@@ -3235,12 +3392,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
